--- a/DS04.txtmatrix_output.xlsx
+++ b/DS04.txtmatrix_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="B3" t="n">
-        <v>0.021830423407874</v>
+        <v>0.02338622704396046</v>
       </c>
       <c r="C3" t="n">
-        <v>1.239679027185604</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1609</v>
+        <v>1621</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02207609495940489</v>
+        <v>0.02311739134674822</v>
       </c>
       <c r="C4" t="n">
-        <v>1.228555486692881</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1610</v>
+        <v>1627</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02338622704396046</v>
+        <v>0.02344245020053565</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1621</v>
+        <v>1628</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02311739134674822</v>
+        <v>0.0229973588789441</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02344245020053565</v>
+        <v>0.02384392712056439</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0229973588789441</v>
+        <v>0.02408971041806801</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02384392712056439</v>
+        <v>0.02349737579981432</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02408971041806801</v>
+        <v>0.02576339018065216</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02349737579981432</v>
+        <v>0.02253270434204889</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -632,47 +632,47 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1633</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02576339018065216</v>
+        <v>0.01733748097298742</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.279492560166369</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1634</v>
+        <v>180</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02253270434204889</v>
+        <v>0.01733748097298742</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.279492560166369</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01733748097298742</v>
+        <v>0.01855097150953076</v>
       </c>
       <c r="C14" t="n">
-        <v>1.279492560166369</v>
+        <v>1.201930915457037</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01733748097298742</v>
+        <v>0.02021831278250572</v>
       </c>
       <c r="C15" t="n">
-        <v>1.279492560166369</v>
+        <v>1.33051150479439</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02021831278250572</v>
+        <v>0.02045209741839243</v>
       </c>
       <c r="C16" t="n">
-        <v>1.33051150479439</v>
+        <v>1.168967137159443</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02153360614943126</v>
+        <v>0.02145779244815333</v>
       </c>
       <c r="C17" t="n">
-        <v>1.252296630943715</v>
+        <v>1.233050429504962</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02156195351404303</v>
+        <v>0.02153360614943126</v>
       </c>
       <c r="C18" t="n">
-        <v>1.250715979128161</v>
+        <v>1.252296630943715</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02161169883059529</v>
+        <v>0.02156195351404303</v>
       </c>
       <c r="C19" t="n">
-        <v>1.247952198412017</v>
+        <v>1.250715979128161</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1624</v>
+        <v>161</v>
       </c>
       <c r="B20" t="n">
-        <v>0.009931702474105112</v>
+        <v>0.02161169883059529</v>
       </c>
       <c r="C20" t="n">
-        <v>2.680414088168127</v>
+        <v>1.247952198412017</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01029549293458583</v>
+        <v>0.009931702474105112</v>
       </c>
       <c r="C21" t="n">
-        <v>2.56585394169661</v>
+        <v>2.680414088168127</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01162670882765171</v>
+        <v>0.01029549293458583</v>
       </c>
       <c r="C22" t="n">
-        <v>2.264757838138982</v>
+        <v>2.56585394169661</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01166350644980718</v>
+        <v>0.01162670882765171</v>
       </c>
       <c r="C23" t="n">
-        <v>2.288840095954099</v>
+        <v>2.264757838138982</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01250070059095855</v>
+        <v>0.01166350644980718</v>
       </c>
       <c r="C24" t="n">
-        <v>1.83152636553958</v>
+        <v>2.288840095954099</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1604</v>
+        <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01319845029650017</v>
+        <v>0.01250070059095855</v>
       </c>
       <c r="C25" t="n">
-        <v>2.001012727200977</v>
+        <v>1.83152636553958</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01487491924073429</v>
+        <v>0.01319845029650017</v>
       </c>
       <c r="C26" t="n">
-        <v>1.806277777686322</v>
+        <v>2.001012727200977</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01512399295202501</v>
+        <v>0.01487491924073429</v>
       </c>
       <c r="C27" t="n">
-        <v>1.777354025504384</v>
+        <v>1.806277777686322</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1638</v>
+        <v>1618</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0152389243794702</v>
+        <v>0.01512399295202501</v>
       </c>
       <c r="C28" t="n">
-        <v>1.739774413638542</v>
+        <v>1.777354025504384</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1607</v>
+        <v>1638</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01533633734434934</v>
+        <v>0.0152389243794702</v>
       </c>
       <c r="C29" t="n">
-        <v>1.743441941174986</v>
+        <v>1.739774413638542</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -938,13 +938,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01536813188297969</v>
+        <v>0.01533633734434934</v>
       </c>
       <c r="C30" t="n">
-        <v>1.7499131909008</v>
+        <v>1.743441941174986</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01551644418523559</v>
+        <v>0.01536813188297969</v>
       </c>
       <c r="C31" t="n">
-        <v>1.733664749185168</v>
+        <v>1.7499131909008</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01651291723229969</v>
+        <v>0.01551644418523559</v>
       </c>
       <c r="C32" t="n">
-        <v>1.638518673386935</v>
+        <v>1.733664749185168</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1602</v>
+        <v>1635</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01660144468721287</v>
+        <v>0.01651291723229969</v>
       </c>
       <c r="C33" t="n">
-        <v>1.623627512520191</v>
+        <v>1.638518673386935</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1625</v>
+        <v>1602</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01700410645818492</v>
+        <v>0.01660144468721287</v>
       </c>
       <c r="C34" t="n">
-        <v>1.586363593795622</v>
+        <v>1.623627512520191</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1613</v>
+        <v>1625</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01705807386939369</v>
+        <v>0.01700410645818492</v>
       </c>
       <c r="C35" t="n">
-        <v>1.587751423545296</v>
+        <v>1.586363593795622</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1596</v>
+        <v>1613</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01706357860071838</v>
+        <v>0.01705807386939369</v>
       </c>
       <c r="C36" t="n">
-        <v>1.581008865061898</v>
+        <v>1.587751423545296</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01747943831602643</v>
+        <v>0.01706357860071838</v>
       </c>
       <c r="C37" t="n">
-        <v>1.269507371056064</v>
+        <v>1.581008865061898</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1636</v>
+        <v>1606</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01766791987109349</v>
+        <v>0.01747943831602643</v>
       </c>
       <c r="C38" t="n">
-        <v>1.534672647769796</v>
+        <v>1.269507371056064</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01770860981897374</v>
+        <v>0.01766791987109349</v>
       </c>
       <c r="C39" t="n">
-        <v>1.253725424311673</v>
+        <v>1.534672647769796</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1605</v>
+        <v>1639</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01774165803181961</v>
+        <v>0.01770860981897374</v>
       </c>
       <c r="C40" t="n">
-        <v>1.501405751458976</v>
+        <v>1.253725424311673</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1598</v>
+        <v>1605</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01778718636576663</v>
+        <v>0.01774165803181961</v>
       </c>
       <c r="C41" t="n">
-        <v>1.518725270549802</v>
+        <v>1.501405751458976</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1637</v>
+        <v>1598</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01779342378385158</v>
+        <v>0.01778718636576663</v>
       </c>
       <c r="C42" t="n">
-        <v>1.524200676286201</v>
+        <v>1.518725270549802</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1601</v>
+        <v>1637</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01840539855341444</v>
+        <v>0.01779342378385158</v>
       </c>
       <c r="C43" t="n">
-        <v>1.469392795628101</v>
+        <v>1.524200676286201</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1640</v>
+        <v>1601</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01881833043635496</v>
+        <v>0.01840539855341444</v>
       </c>
       <c r="C44" t="n">
-        <v>1.438246964614388</v>
+        <v>1.469392795628101</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1626</v>
+        <v>1640</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01911845005759099</v>
+        <v>0.01881833043635496</v>
       </c>
       <c r="C45" t="n">
-        <v>1.416454395031232</v>
+        <v>1.438246964614388</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01918265206509178</v>
+        <v>0.01911845005759099</v>
       </c>
       <c r="C46" t="n">
-        <v>1.403889795571659</v>
+        <v>1.416454395031232</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1617</v>
+        <v>1629</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01965648292207575</v>
+        <v>0.01918265206509178</v>
       </c>
       <c r="C47" t="n">
-        <v>1.379052110234864</v>
+        <v>1.403889795571659</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01972741543459916</v>
+        <v>0.01965648292207575</v>
       </c>
       <c r="C48" t="n">
-        <v>1.374273328859977</v>
+        <v>1.379052110234864</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02033808203766869</v>
+        <v>0.01972741543459916</v>
       </c>
       <c r="C49" t="n">
-        <v>1.334511000545404</v>
+        <v>1.374273328859977</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1603</v>
+        <v>1616</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02121501223851097</v>
+        <v>0.02033808203766869</v>
       </c>
       <c r="C50" t="n">
-        <v>1.286439417554729</v>
+        <v>1.334511000545404</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02131195889928089</v>
+        <v>0.02121501223851097</v>
       </c>
       <c r="C51" t="n">
-        <v>1.275813649080462</v>
+        <v>1.286439417554729</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1312,18 +1312,69 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.02131195889928089</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.275813649080462</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>1599</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B53" t="n">
         <v>0.02175205235094401</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C53" t="n">
         <v>1.255912754915863</v>
       </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.021830423407874</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.239679027185604</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1609</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.02207609495940489</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.228555486692881</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
         <v>1</v>
       </c>
     </row>

--- a/DS04.txtmatrix_output.xlsx
+++ b/DS04.txtmatrix_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02338622704396046</v>
+        <v>0.02175205235094401</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.269381847279856</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02311739134674822</v>
+        <v>0.02131195889928089</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.295594671792517</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1627</v>
+        <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02344245020053565</v>
+        <v>0.02121501223851097</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.301515176373399</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0229973588789441</v>
+        <v>0.01747943831602643</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.283691969532698</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1630</v>
+        <v>1608</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02384392712056439</v>
+        <v>0.021830423407874</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.254545806775584</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1631</v>
+        <v>1609</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02408971041806801</v>
+        <v>0.02207609495940489</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.240584722834612</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02349737579981432</v>
+        <v>0.02338622704396046</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1633</v>
+        <v>1621</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02576339018065216</v>
+        <v>0.02311739134674822</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02253270434204889</v>
+        <v>0.02344245020053565</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -632,132 +632,132 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1628</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01733748097298742</v>
+        <v>0.0229973588789441</v>
       </c>
       <c r="C12" t="n">
-        <v>1.279492560166369</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>180</v>
+        <v>1630</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01733748097298742</v>
+        <v>0.02384392712056439</v>
       </c>
       <c r="C13" t="n">
-        <v>1.279492560166369</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>1631</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01855097150953076</v>
+        <v>0.02408971041806801</v>
       </c>
       <c r="C14" t="n">
-        <v>1.201930915457037</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>188</v>
+        <v>1632</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02021831278250572</v>
+        <v>0.02349737579981432</v>
       </c>
       <c r="C15" t="n">
-        <v>1.33051150479439</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>187</v>
+        <v>1633</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02045209741839243</v>
+        <v>0.02576339018065216</v>
       </c>
       <c r="C16" t="n">
-        <v>1.168967137159443</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>152</v>
+        <v>1634</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02145779244815333</v>
+        <v>0.02253270434204889</v>
       </c>
       <c r="C17" t="n">
-        <v>1.233050429504962</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>170</v>
+        <v>1639</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02153360614943126</v>
+        <v>0.01770860981897374</v>
       </c>
       <c r="C18" t="n">
-        <v>1.252296630943715</v>
+        <v>1.267079394012287</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02156195351404303</v>
+        <v>0.01855097150953076</v>
       </c>
       <c r="C19" t="n">
-        <v>1.250715979128161</v>
+        <v>1.488421260373542</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02161169883059529</v>
+        <v>0.02021831278250572</v>
       </c>
       <c r="C20" t="n">
-        <v>1.247952198412017</v>
+        <v>1.354577231102154</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0.009931702474105112</v>
       </c>
       <c r="C21" t="n">
-        <v>2.680414088168127</v>
+        <v>2.780153802166467</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>0.01029549293458583</v>
       </c>
       <c r="C22" t="n">
-        <v>2.56585394169661</v>
+        <v>2.68191727883306</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>0.01162670882765171</v>
       </c>
       <c r="C23" t="n">
-        <v>2.264757838138982</v>
+        <v>2.355547606159102</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0.01166350644980718</v>
       </c>
       <c r="C24" t="n">
-        <v>2.288840095954099</v>
+        <v>2.367355007192191</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>0.01250070059095855</v>
       </c>
       <c r="C25" t="n">
-        <v>1.83152636553958</v>
+        <v>2.20880903389849</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0.01319845029650017</v>
       </c>
       <c r="C26" t="n">
-        <v>2.001012727200977</v>
+        <v>2.075036502864747</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0.01487491924073429</v>
       </c>
       <c r="C27" t="n">
-        <v>1.806277777686322</v>
+        <v>1.856256154975024</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0.01512399295202501</v>
       </c>
       <c r="C28" t="n">
-        <v>1.777354025504384</v>
+        <v>1.825685880901737</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0.0152389243794702</v>
       </c>
       <c r="C29" t="n">
-        <v>1.739774413638542</v>
+        <v>1.797191551352527</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>0.01533633734434934</v>
       </c>
       <c r="C30" t="n">
-        <v>1.743441941174986</v>
+        <v>1.78577619489928</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0.01536813188297969</v>
       </c>
       <c r="C31" t="n">
-        <v>1.7499131909008</v>
+        <v>1.796682941402236</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0.01551644418523559</v>
       </c>
       <c r="C32" t="n">
-        <v>1.733664749185168</v>
+        <v>1.779509536188894</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>0.01651291723229969</v>
       </c>
       <c r="C33" t="n">
-        <v>1.638518673386935</v>
+        <v>1.672124919354668</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0.01660144468721287</v>
       </c>
       <c r="C34" t="n">
-        <v>1.623627512520191</v>
+        <v>1.663208287929128</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>0.01700410645818492</v>
       </c>
       <c r="C35" t="n">
-        <v>1.586363593795622</v>
+        <v>1.623823072577775</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0.01705807386939369</v>
       </c>
       <c r="C36" t="n">
-        <v>1.587751423545296</v>
+        <v>1.618685708995049</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>0.01706357860071838</v>
       </c>
       <c r="C37" t="n">
-        <v>1.581008865061898</v>
+        <v>1.618163519005737</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1606</v>
+        <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01747943831602643</v>
+        <v>0.01766791987109349</v>
       </c>
       <c r="C38" t="n">
-        <v>1.269507371056064</v>
+        <v>1.56281331344189</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1636</v>
+        <v>1605</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01766791987109349</v>
+        <v>0.01774165803181961</v>
       </c>
       <c r="C39" t="n">
-        <v>1.534672647769796</v>
+        <v>1.543670050305609</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1639</v>
+        <v>1598</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01770860981897374</v>
+        <v>0.01778718636576663</v>
       </c>
       <c r="C40" t="n">
-        <v>1.253725424311673</v>
+        <v>1.55233435055873</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1605</v>
+        <v>1637</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01774165803181961</v>
+        <v>0.01779342378385158</v>
       </c>
       <c r="C41" t="n">
-        <v>1.501405751458976</v>
+        <v>1.551790185564422</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01778718636576663</v>
+        <v>0.01840539855341444</v>
       </c>
       <c r="C42" t="n">
-        <v>1.518725270549802</v>
+        <v>1.500193560885815</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01779342378385158</v>
+        <v>0.01881833043635496</v>
       </c>
       <c r="C43" t="n">
-        <v>1.524200676286201</v>
+        <v>1.46727471327779</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01840539855341444</v>
+        <v>0.01911845005759099</v>
       </c>
       <c r="C44" t="n">
-        <v>1.469392795628101</v>
+        <v>1.44424157356868</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01881833043635496</v>
+        <v>0.01918265206509178</v>
       </c>
       <c r="C45" t="n">
-        <v>1.438246964614388</v>
+        <v>1.427710102521366</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01911845005759099</v>
+        <v>0.01965648292207575</v>
       </c>
       <c r="C46" t="n">
-        <v>1.416454395031232</v>
+        <v>1.404710115478462</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01918265206509178</v>
+        <v>0.01972741543459916</v>
       </c>
       <c r="C47" t="n">
-        <v>1.403889795571659</v>
+        <v>1.399659295811371</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1244,137 +1244,18 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01965648292207575</v>
+        <v>0.02033808203766869</v>
       </c>
       <c r="C48" t="n">
-        <v>1.379052110234864</v>
+        <v>1.357633445682299</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1620</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.01972741543459916</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.374273328859977</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1616</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.02033808203766869</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.334511000545404</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1603</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.02121501223851097</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.286439417554729</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1600</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.02131195889928089</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.275813649080462</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1599</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.02175205235094401</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.255912754915863</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1608</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.021830423407874</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.239679027185604</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1609</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.02207609495940489</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.228555486692881</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
         <v>1</v>
       </c>
     </row>
